--- a/public/excel/Quantum_yield.xlsx
+++ b/public/excel/Quantum_yield.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Yield" sheetId="1" r:id="rId1"/>
+    <sheet name="Quantum yield" sheetId="1" r:id="rId1"/>
     <sheet name="Лист3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Calibration_C">#REF!</definedName>
     <definedName name="Calibration_D">#REF!</definedName>
-    <definedName name="Concentration">Yield!$C$3:$C$17</definedName>
-    <definedName name="Time">Yield!$B$3:$B$17</definedName>
+    <definedName name="Concentration">'Quantum yield'!$C$3:$C$17</definedName>
+    <definedName name="Time">'Quantum yield'!$B$3:$B$17</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -224,14 +224,14 @@
                 <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>Radication chemistry</a:t>
+              <a:t>Quantum </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0">
                 <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t> yield</a:t>
+              <a:t>yield</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
@@ -281,8 +281,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.32819285852933977"/>
-                  <c:y val="-6.0108768824646197E-3"/>
+                  <c:x val="-0.23208741764422305"/>
+                  <c:y val="-2.933063367079115E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="0.00000E+00" sourceLinked="0"/>
@@ -329,11 +329,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60842752"/>
-        <c:axId val="60844288"/>
+        <c:axId val="110977408"/>
+        <c:axId val="110979328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60842752"/>
+        <c:axId val="110977408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -353,7 +353,7 @@
                     <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Light intensity I*E-18, photon/s</a:t>
+                  <a:t>Time, sec</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -385,12 +385,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60844288"/>
+        <c:crossAx val="110979328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60844288"/>
+        <c:axId val="110979328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -431,8 +431,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.2861736334405145E-2"/>
-              <c:y val="0.37545636766585733"/>
+              <c:x val="1.2861713765153467E-2"/>
+              <c:y val="0.29926599175103114"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -454,7 +454,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60842752"/>
+        <c:crossAx val="110977408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -481,8 +481,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -796,7 +796,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
